--- a/reports/rptLeituras.xlsx
+++ b/reports/rptLeituras.xlsx
@@ -259,7 +259,7 @@
       <c r="C2" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">01/12/2020</t>
+            <t xml:space="preserve">08/12/2020</t>
           </r>
         </is>
       </c>
@@ -274,7 +274,7 @@
       <c r="F2" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">04/12/2020</t>
+            <t xml:space="preserve">10/12/2020</t>
           </r>
         </is>
       </c>
@@ -384,37 +384,37 @@
       <c r="C5" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">405</t>
+            <t xml:space="preserve">301</t>
           </r>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr"/>
       <c r="E5" s="6">
-        <v>44166.0</v>
+        <v>44175.0</v>
       </c>
       <c r="F5" s="6" t="inlineStr"/>
       <c r="G5" s="7" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">A</t>
+            <t xml:space="preserve">C</t>
           </r>
         </is>
       </c>
       <c r="H5" s="7" t="inlineStr"/>
       <c r="I5" s="8" t="n">
-        <v>776.0</v>
+        <v>20.0</v>
       </c>
       <c r="J5" s="8" t="n">
-        <v>750.0</v>
+        <v>450.0</v>
       </c>
       <c r="K5" s="8" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="L5" s="8" t="n">
         <v>0.0</v>
       </c>
       <c r="M5" s="8" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="N5" s="8" t="inlineStr"/>
       <c r="O5" s="1" t="inlineStr"/>
@@ -427,13 +427,13 @@
       <c r="C6" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">401</t>
+            <t xml:space="preserve">301</t>
           </r>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr"/>
       <c r="E6" s="6">
-        <v>44167.0</v>
+        <v>44175.0</v>
       </c>
       <c r="F6" s="6" t="inlineStr"/>
       <c r="G6" s="7" t="inlineStr">
@@ -445,13 +445,13 @@
       </c>
       <c r="H6" s="7" t="inlineStr"/>
       <c r="I6" s="8" t="n">
-        <v>300.0</v>
+        <v>320.0</v>
       </c>
       <c r="J6" s="8" t="n">
-        <v>650.0</v>
+        <v>750.0</v>
       </c>
       <c r="K6" s="8" t="n">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
       <c r="L6" s="8" t="n">
         <v>0.0</v>
@@ -470,13 +470,13 @@
       <c r="C7" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">543</t>
+            <t xml:space="preserve">582</t>
           </r>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr"/>
       <c r="E7" s="6">
-        <v>44168.0</v>
+        <v>44175.0</v>
       </c>
       <c r="F7" s="6" t="inlineStr"/>
       <c r="G7" s="7" t="inlineStr">
@@ -488,10 +488,10 @@
       </c>
       <c r="H7" s="7" t="inlineStr"/>
       <c r="I7" s="8" t="n">
-        <v>550.0</v>
+        <v>570.0</v>
       </c>
       <c r="J7" s="8" t="n">
-        <v>670.0</v>
+        <v>750.0</v>
       </c>
       <c r="K7" s="8" t="n">
         <v>0.0</v>
@@ -500,69 +500,198 @@
         <v>0.0</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>8.0</v>
+        <v>3.0</v>
       </c>
       <c r="N7" s="8" t="inlineStr"/>
       <c r="O7" s="1" t="inlineStr"/>
     </row>
-    <row r="8" customHeight="1" ht="704">
+    <row r="8" customHeight="1" ht="15">
       <c r="A8" s="1" t="inlineStr"/>
-      <c r="B8" s="1" t="inlineStr"/>
-      <c r="C8" s="1" t="inlineStr"/>
-      <c r="D8" s="1" t="inlineStr"/>
-      <c r="E8" s="1" t="inlineStr"/>
-      <c r="F8" s="1" t="inlineStr"/>
-      <c r="G8" s="1" t="inlineStr"/>
-      <c r="H8" s="1" t="inlineStr"/>
-      <c r="I8" s="1" t="inlineStr"/>
-      <c r="J8" s="1" t="inlineStr"/>
-      <c r="K8" s="1" t="inlineStr"/>
-      <c r="L8" s="1" t="inlineStr"/>
-      <c r="M8" s="1" t="inlineStr"/>
-      <c r="N8" s="1" t="inlineStr"/>
+      <c r="B8" s="2" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">658</t>
+          </r>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr"/>
+      <c r="E8" s="6">
+        <v>44175.0</v>
+      </c>
+      <c r="F8" s="6" t="inlineStr"/>
+      <c r="G8" s="7" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">A</t>
+          </r>
+        </is>
+      </c>
+      <c r="H8" s="7" t="inlineStr"/>
+      <c r="I8" s="8" t="n">
+        <v>654.0</v>
+      </c>
+      <c r="J8" s="8" t="n">
+        <v>658.0</v>
+      </c>
+      <c r="K8" s="8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L8" s="8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M8" s="8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N8" s="8" t="inlineStr"/>
       <c r="O8" s="1" t="inlineStr"/>
     </row>
-    <row r="9" customHeight="1" ht="13">
+    <row r="9" customHeight="1" ht="15">
       <c r="A9" s="1" t="inlineStr"/>
-      <c r="B9" s="9">
-        <v>44169.461990740616</v>
-      </c>
-      <c r="C9" s="9" t="inlineStr"/>
-      <c r="D9" s="1" t="inlineStr"/>
-      <c r="E9" s="1" t="inlineStr"/>
-      <c r="F9" s="1" t="inlineStr"/>
-      <c r="G9" s="1" t="inlineStr"/>
-      <c r="H9" s="1" t="inlineStr"/>
-      <c r="I9" s="1" t="inlineStr"/>
-      <c r="J9" s="1" t="inlineStr"/>
-      <c r="K9" s="1" t="inlineStr"/>
-      <c r="L9" s="1" t="inlineStr"/>
-      <c r="M9" s="1" t="inlineStr"/>
-      <c r="N9" s="10" t="inlineStr">
+      <c r="B9" s="2" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">724</t>
+          </r>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr"/>
+      <c r="E9" s="6">
+        <v>44175.0</v>
+      </c>
+      <c r="F9" s="6" t="inlineStr"/>
+      <c r="G9" s="7" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">A</t>
+          </r>
+        </is>
+      </c>
+      <c r="H9" s="7" t="inlineStr"/>
+      <c r="I9" s="8" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="J9" s="8" t="n">
+        <v>850.0</v>
+      </c>
+      <c r="K9" s="8" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="L9" s="8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M9" s="8" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N9" s="8" t="inlineStr"/>
+      <c r="O9" s="1" t="inlineStr"/>
+    </row>
+    <row r="10" customHeight="1" ht="15">
+      <c r="A10" s="1" t="inlineStr"/>
+      <c r="B10" s="2" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">956</t>
+          </r>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr"/>
+      <c r="E10" s="6">
+        <v>44175.0</v>
+      </c>
+      <c r="F10" s="6" t="inlineStr"/>
+      <c r="G10" s="7" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">A</t>
+          </r>
+        </is>
+      </c>
+      <c r="H10" s="7" t="inlineStr"/>
+      <c r="I10" s="8" t="n">
+        <v>120.0</v>
+      </c>
+      <c r="J10" s="8" t="n">
+        <v>850.0</v>
+      </c>
+      <c r="K10" s="8" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="L10" s="8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M10" s="8" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N10" s="8" t="inlineStr"/>
+      <c r="O10" s="1" t="inlineStr"/>
+    </row>
+    <row r="11" customHeight="1" ht="659">
+      <c r="A11" s="1" t="inlineStr"/>
+      <c r="B11" s="1" t="inlineStr"/>
+      <c r="C11" s="1" t="inlineStr"/>
+      <c r="D11" s="1" t="inlineStr"/>
+      <c r="E11" s="1" t="inlineStr"/>
+      <c r="F11" s="1" t="inlineStr"/>
+      <c r="G11" s="1" t="inlineStr"/>
+      <c r="H11" s="1" t="inlineStr"/>
+      <c r="I11" s="1" t="inlineStr"/>
+      <c r="J11" s="1" t="inlineStr"/>
+      <c r="K11" s="1" t="inlineStr"/>
+      <c r="L11" s="1" t="inlineStr"/>
+      <c r="M11" s="1" t="inlineStr"/>
+      <c r="N11" s="1" t="inlineStr"/>
+      <c r="O11" s="1" t="inlineStr"/>
+    </row>
+    <row r="12" customHeight="1" ht="13">
+      <c r="A12" s="1" t="inlineStr"/>
+      <c r="B12" s="9">
+        <v>44190.40864583338</v>
+      </c>
+      <c r="C12" s="9" t="inlineStr"/>
+      <c r="D12" s="1" t="inlineStr"/>
+      <c r="E12" s="1" t="inlineStr"/>
+      <c r="F12" s="1" t="inlineStr"/>
+      <c r="G12" s="1" t="inlineStr"/>
+      <c r="H12" s="1" t="inlineStr"/>
+      <c r="I12" s="1" t="inlineStr"/>
+      <c r="J12" s="1" t="inlineStr"/>
+      <c r="K12" s="1" t="inlineStr"/>
+      <c r="L12" s="1" t="inlineStr"/>
+      <c r="M12" s="1" t="inlineStr"/>
+      <c r="N12" s="10" t="inlineStr">
         <is>
           <r>
             <t xml:space="preserve"> 1</t>
           </r>
         </is>
       </c>
-      <c r="O9" s="1" t="inlineStr"/>
-    </row>
-    <row r="10" customHeight="1" ht="20">
-      <c r="A10" s="1" t="inlineStr"/>
-      <c r="B10" s="1" t="inlineStr"/>
-      <c r="C10" s="1" t="inlineStr"/>
-      <c r="D10" s="1" t="inlineStr"/>
-      <c r="E10" s="1" t="inlineStr"/>
-      <c r="F10" s="1" t="inlineStr"/>
-      <c r="G10" s="1" t="inlineStr"/>
-      <c r="H10" s="1" t="inlineStr"/>
-      <c r="I10" s="1" t="inlineStr"/>
-      <c r="J10" s="1" t="inlineStr"/>
-      <c r="K10" s="1" t="inlineStr"/>
-      <c r="L10" s="1" t="inlineStr"/>
-      <c r="M10" s="1" t="inlineStr"/>
-      <c r="N10" s="1" t="inlineStr"/>
-      <c r="O10" s="1" t="inlineStr"/>
+      <c r="O12" s="1" t="inlineStr"/>
+    </row>
+    <row r="13" customHeight="1" ht="20">
+      <c r="A13" s="1" t="inlineStr"/>
+      <c r="B13" s="1" t="inlineStr"/>
+      <c r="C13" s="1" t="inlineStr"/>
+      <c r="D13" s="1" t="inlineStr"/>
+      <c r="E13" s="1" t="inlineStr"/>
+      <c r="F13" s="1" t="inlineStr"/>
+      <c r="G13" s="1" t="inlineStr"/>
+      <c r="H13" s="1" t="inlineStr"/>
+      <c r="I13" s="1" t="inlineStr"/>
+      <c r="J13" s="1" t="inlineStr"/>
+      <c r="K13" s="1" t="inlineStr"/>
+      <c r="L13" s="1" t="inlineStr"/>
+      <c r="M13" s="1" t="inlineStr"/>
+      <c r="N13" s="1" t="inlineStr"/>
+      <c r="O13" s="1" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -584,7 +713,19 @@
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="M7:N7"/>
-    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="B12:C12"/>
   </mergeCells>
   <pageMargins left="0.0" right="0.0" top="0.0" bottom="0.00" header="0.0" footer="0.0"/>
   <pageSetup orientation="portrait"/>

--- a/reports/rptLeituras.xlsx
+++ b/reports/rptLeituras.xlsx
@@ -259,7 +259,7 @@
       <c r="C2" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">08/12/2020</t>
+            <t xml:space="preserve">02/12/2020</t>
           </r>
         </is>
       </c>
@@ -274,7 +274,7 @@
       <c r="F2" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">10/12/2020</t>
+            <t xml:space="preserve">09/12/2020</t>
           </r>
         </is>
       </c>
@@ -384,37 +384,37 @@
       <c r="C5" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">301</t>
+            <t xml:space="preserve">401</t>
           </r>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr"/>
       <c r="E5" s="6">
-        <v>44175.0</v>
+        <v>44167.0</v>
       </c>
       <c r="F5" s="6" t="inlineStr"/>
       <c r="G5" s="7" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">C</t>
+            <t xml:space="preserve">A</t>
           </r>
         </is>
       </c>
       <c r="H5" s="7" t="inlineStr"/>
       <c r="I5" s="8" t="n">
-        <v>20.0</v>
+        <v>300.0</v>
       </c>
       <c r="J5" s="8" t="n">
-        <v>450.0</v>
+        <v>650.0</v>
       </c>
       <c r="K5" s="8" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="L5" s="8" t="n">
         <v>0.0</v>
       </c>
       <c r="M5" s="8" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c r="N5" s="8" t="inlineStr"/>
       <c r="O5" s="1" t="inlineStr"/>
@@ -427,13 +427,13 @@
       <c r="C6" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">301</t>
+            <t xml:space="preserve">543</t>
           </r>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr"/>
       <c r="E6" s="6">
-        <v>44175.0</v>
+        <v>44168.0</v>
       </c>
       <c r="F6" s="6" t="inlineStr"/>
       <c r="G6" s="7" t="inlineStr">
@@ -445,10 +445,10 @@
       </c>
       <c r="H6" s="7" t="inlineStr"/>
       <c r="I6" s="8" t="n">
-        <v>320.0</v>
+        <v>550.0</v>
       </c>
       <c r="J6" s="8" t="n">
-        <v>750.0</v>
+        <v>670.0</v>
       </c>
       <c r="K6" s="8" t="n">
         <v>0.0</v>
@@ -457,241 +457,69 @@
         <v>0.0</v>
       </c>
       <c r="M6" s="8" t="n">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="N6" s="8" t="inlineStr"/>
       <c r="O6" s="1" t="inlineStr"/>
     </row>
-    <row r="7" customHeight="1" ht="15">
+    <row r="7" customHeight="1" ht="719">
       <c r="A7" s="1" t="inlineStr"/>
-      <c r="B7" s="2" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">582</t>
-          </r>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr"/>
-      <c r="E7" s="6">
-        <v>44175.0</v>
-      </c>
-      <c r="F7" s="6" t="inlineStr"/>
-      <c r="G7" s="7" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">A</t>
-          </r>
-        </is>
-      </c>
-      <c r="H7" s="7" t="inlineStr"/>
-      <c r="I7" s="8" t="n">
-        <v>570.0</v>
-      </c>
-      <c r="J7" s="8" t="n">
-        <v>750.0</v>
-      </c>
-      <c r="K7" s="8" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L7" s="8" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M7" s="8" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="N7" s="8" t="inlineStr"/>
+      <c r="B7" s="1" t="inlineStr"/>
+      <c r="C7" s="1" t="inlineStr"/>
+      <c r="D7" s="1" t="inlineStr"/>
+      <c r="E7" s="1" t="inlineStr"/>
+      <c r="F7" s="1" t="inlineStr"/>
+      <c r="G7" s="1" t="inlineStr"/>
+      <c r="H7" s="1" t="inlineStr"/>
+      <c r="I7" s="1" t="inlineStr"/>
+      <c r="J7" s="1" t="inlineStr"/>
+      <c r="K7" s="1" t="inlineStr"/>
+      <c r="L7" s="1" t="inlineStr"/>
+      <c r="M7" s="1" t="inlineStr"/>
+      <c r="N7" s="1" t="inlineStr"/>
       <c r="O7" s="1" t="inlineStr"/>
     </row>
-    <row r="8" customHeight="1" ht="15">
+    <row r="8" customHeight="1" ht="13">
       <c r="A8" s="1" t="inlineStr"/>
-      <c r="B8" s="2" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">658</t>
-          </r>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr"/>
-      <c r="E8" s="6">
-        <v>44175.0</v>
-      </c>
-      <c r="F8" s="6" t="inlineStr"/>
-      <c r="G8" s="7" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">A</t>
-          </r>
-        </is>
-      </c>
-      <c r="H8" s="7" t="inlineStr"/>
-      <c r="I8" s="8" t="n">
-        <v>654.0</v>
-      </c>
-      <c r="J8" s="8" t="n">
-        <v>658.0</v>
-      </c>
-      <c r="K8" s="8" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L8" s="8" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M8" s="8" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N8" s="8" t="inlineStr"/>
+      <c r="B8" s="9">
+        <v>44194.38380787056</v>
+      </c>
+      <c r="C8" s="9" t="inlineStr"/>
+      <c r="D8" s="1" t="inlineStr"/>
+      <c r="E8" s="1" t="inlineStr"/>
+      <c r="F8" s="1" t="inlineStr"/>
+      <c r="G8" s="1" t="inlineStr"/>
+      <c r="H8" s="1" t="inlineStr"/>
+      <c r="I8" s="1" t="inlineStr"/>
+      <c r="J8" s="1" t="inlineStr"/>
+      <c r="K8" s="1" t="inlineStr"/>
+      <c r="L8" s="1" t="inlineStr"/>
+      <c r="M8" s="1" t="inlineStr"/>
+      <c r="N8" s="10" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve"> 1</t>
+          </r>
+        </is>
+      </c>
       <c r="O8" s="1" t="inlineStr"/>
     </row>
-    <row r="9" customHeight="1" ht="15">
+    <row r="9" customHeight="1" ht="20">
       <c r="A9" s="1" t="inlineStr"/>
-      <c r="B9" s="2" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">724</t>
-          </r>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr"/>
-      <c r="E9" s="6">
-        <v>44175.0</v>
-      </c>
-      <c r="F9" s="6" t="inlineStr"/>
-      <c r="G9" s="7" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">A</t>
-          </r>
-        </is>
-      </c>
-      <c r="H9" s="7" t="inlineStr"/>
-      <c r="I9" s="8" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="J9" s="8" t="n">
-        <v>850.0</v>
-      </c>
-      <c r="K9" s="8" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="L9" s="8" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M9" s="8" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="N9" s="8" t="inlineStr"/>
+      <c r="B9" s="1" t="inlineStr"/>
+      <c r="C9" s="1" t="inlineStr"/>
+      <c r="D9" s="1" t="inlineStr"/>
+      <c r="E9" s="1" t="inlineStr"/>
+      <c r="F9" s="1" t="inlineStr"/>
+      <c r="G9" s="1" t="inlineStr"/>
+      <c r="H9" s="1" t="inlineStr"/>
+      <c r="I9" s="1" t="inlineStr"/>
+      <c r="J9" s="1" t="inlineStr"/>
+      <c r="K9" s="1" t="inlineStr"/>
+      <c r="L9" s="1" t="inlineStr"/>
+      <c r="M9" s="1" t="inlineStr"/>
+      <c r="N9" s="1" t="inlineStr"/>
       <c r="O9" s="1" t="inlineStr"/>
-    </row>
-    <row r="10" customHeight="1" ht="15">
-      <c r="A10" s="1" t="inlineStr"/>
-      <c r="B10" s="2" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">956</t>
-          </r>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr"/>
-      <c r="E10" s="6">
-        <v>44175.0</v>
-      </c>
-      <c r="F10" s="6" t="inlineStr"/>
-      <c r="G10" s="7" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">A</t>
-          </r>
-        </is>
-      </c>
-      <c r="H10" s="7" t="inlineStr"/>
-      <c r="I10" s="8" t="n">
-        <v>120.0</v>
-      </c>
-      <c r="J10" s="8" t="n">
-        <v>850.0</v>
-      </c>
-      <c r="K10" s="8" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="L10" s="8" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M10" s="8" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="N10" s="8" t="inlineStr"/>
-      <c r="O10" s="1" t="inlineStr"/>
-    </row>
-    <row r="11" customHeight="1" ht="659">
-      <c r="A11" s="1" t="inlineStr"/>
-      <c r="B11" s="1" t="inlineStr"/>
-      <c r="C11" s="1" t="inlineStr"/>
-      <c r="D11" s="1" t="inlineStr"/>
-      <c r="E11" s="1" t="inlineStr"/>
-      <c r="F11" s="1" t="inlineStr"/>
-      <c r="G11" s="1" t="inlineStr"/>
-      <c r="H11" s="1" t="inlineStr"/>
-      <c r="I11" s="1" t="inlineStr"/>
-      <c r="J11" s="1" t="inlineStr"/>
-      <c r="K11" s="1" t="inlineStr"/>
-      <c r="L11" s="1" t="inlineStr"/>
-      <c r="M11" s="1" t="inlineStr"/>
-      <c r="N11" s="1" t="inlineStr"/>
-      <c r="O11" s="1" t="inlineStr"/>
-    </row>
-    <row r="12" customHeight="1" ht="13">
-      <c r="A12" s="1" t="inlineStr"/>
-      <c r="B12" s="9">
-        <v>44190.40864583338</v>
-      </c>
-      <c r="C12" s="9" t="inlineStr"/>
-      <c r="D12" s="1" t="inlineStr"/>
-      <c r="E12" s="1" t="inlineStr"/>
-      <c r="F12" s="1" t="inlineStr"/>
-      <c r="G12" s="1" t="inlineStr"/>
-      <c r="H12" s="1" t="inlineStr"/>
-      <c r="I12" s="1" t="inlineStr"/>
-      <c r="J12" s="1" t="inlineStr"/>
-      <c r="K12" s="1" t="inlineStr"/>
-      <c r="L12" s="1" t="inlineStr"/>
-      <c r="M12" s="1" t="inlineStr"/>
-      <c r="N12" s="10" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve"> 1</t>
-          </r>
-        </is>
-      </c>
-      <c r="O12" s="1" t="inlineStr"/>
-    </row>
-    <row r="13" customHeight="1" ht="20">
-      <c r="A13" s="1" t="inlineStr"/>
-      <c r="B13" s="1" t="inlineStr"/>
-      <c r="C13" s="1" t="inlineStr"/>
-      <c r="D13" s="1" t="inlineStr"/>
-      <c r="E13" s="1" t="inlineStr"/>
-      <c r="F13" s="1" t="inlineStr"/>
-      <c r="G13" s="1" t="inlineStr"/>
-      <c r="H13" s="1" t="inlineStr"/>
-      <c r="I13" s="1" t="inlineStr"/>
-      <c r="J13" s="1" t="inlineStr"/>
-      <c r="K13" s="1" t="inlineStr"/>
-      <c r="L13" s="1" t="inlineStr"/>
-      <c r="M13" s="1" t="inlineStr"/>
-      <c r="N13" s="1" t="inlineStr"/>
-      <c r="O13" s="1" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -709,23 +537,7 @@
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="G6:H6"/>
     <mergeCell ref="M6:N6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B8:C8"/>
   </mergeCells>
   <pageMargins left="0.0" right="0.0" top="0.0" bottom="0.00" header="0.0" footer="0.0"/>
   <pageSetup orientation="portrait"/>

--- a/reports/rptLeituras.xlsx
+++ b/reports/rptLeituras.xlsx
@@ -259,7 +259,7 @@
       <c r="C2" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">02/12/2020</t>
+            <t xml:space="preserve">24/11/2020</t>
           </r>
         </is>
       </c>
@@ -274,7 +274,7 @@
       <c r="F2" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">09/12/2020</t>
+            <t xml:space="preserve">01/01/2022</t>
           </r>
         </is>
       </c>
@@ -379,42 +379,42 @@
     <row r="5" customHeight="1" ht="15">
       <c r="A5" s="1" t="inlineStr"/>
       <c r="B5" s="2" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">401</t>
+            <t xml:space="preserve">302</t>
           </r>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr"/>
       <c r="E5" s="6">
-        <v>44167.0</v>
+        <v>44159.0</v>
       </c>
       <c r="F5" s="6" t="inlineStr"/>
       <c r="G5" s="7" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">A</t>
+            <t xml:space="preserve">B</t>
           </r>
         </is>
       </c>
       <c r="H5" s="7" t="inlineStr"/>
       <c r="I5" s="8" t="n">
-        <v>300.0</v>
+        <v>210.0</v>
       </c>
       <c r="J5" s="8" t="n">
-        <v>650.0</v>
+        <v>710.0</v>
       </c>
       <c r="K5" s="8" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="L5" s="8" t="n">
         <v>0.0</v>
       </c>
       <c r="M5" s="8" t="n">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="N5" s="8" t="inlineStr"/>
       <c r="O5" s="1" t="inlineStr"/>
@@ -422,18 +422,18 @@
     <row r="6" customHeight="1" ht="15">
       <c r="A6" s="1" t="inlineStr"/>
       <c r="B6" s="2" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">543</t>
+            <t xml:space="preserve">455</t>
           </r>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr"/>
       <c r="E6" s="6">
-        <v>44168.0</v>
+        <v>44167.0</v>
       </c>
       <c r="F6" s="6" t="inlineStr"/>
       <c r="G6" s="7" t="inlineStr">
@@ -445,46 +445,70 @@
       </c>
       <c r="H6" s="7" t="inlineStr"/>
       <c r="I6" s="8" t="n">
-        <v>550.0</v>
+        <v>254.0</v>
       </c>
       <c r="J6" s="8" t="n">
-        <v>670.0</v>
+        <v>650.0</v>
       </c>
       <c r="K6" s="8" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="L6" s="8" t="n">
         <v>0.0</v>
       </c>
       <c r="M6" s="8" t="n">
-        <v>8.0</v>
+        <v>0.0</v>
       </c>
       <c r="N6" s="8" t="inlineStr"/>
       <c r="O6" s="1" t="inlineStr"/>
     </row>
-    <row r="7" customHeight="1" ht="719">
+    <row r="7" customHeight="1" ht="15">
       <c r="A7" s="1" t="inlineStr"/>
-      <c r="B7" s="1" t="inlineStr"/>
-      <c r="C7" s="1" t="inlineStr"/>
-      <c r="D7" s="1" t="inlineStr"/>
-      <c r="E7" s="1" t="inlineStr"/>
-      <c r="F7" s="1" t="inlineStr"/>
-      <c r="G7" s="1" t="inlineStr"/>
-      <c r="H7" s="1" t="inlineStr"/>
-      <c r="I7" s="1" t="inlineStr"/>
-      <c r="J7" s="1" t="inlineStr"/>
-      <c r="K7" s="1" t="inlineStr"/>
-      <c r="L7" s="1" t="inlineStr"/>
-      <c r="M7" s="1" t="inlineStr"/>
-      <c r="N7" s="1" t="inlineStr"/>
+      <c r="B7" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">304</t>
+          </r>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr"/>
+      <c r="E7" s="6">
+        <v>44228.0</v>
+      </c>
+      <c r="F7" s="6" t="inlineStr"/>
+      <c r="G7" s="7" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">A</t>
+          </r>
+        </is>
+      </c>
+      <c r="H7" s="7" t="inlineStr"/>
+      <c r="I7" s="8" t="n">
+        <v>250.0</v>
+      </c>
+      <c r="J7" s="8" t="n">
+        <v>400.0</v>
+      </c>
+      <c r="K7" s="8" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="L7" s="8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M7" s="8" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="N7" s="8" t="inlineStr"/>
       <c r="O7" s="1" t="inlineStr"/>
     </row>
-    <row r="8" customHeight="1" ht="13">
+    <row r="8" customHeight="1" ht="704">
       <c r="A8" s="1" t="inlineStr"/>
-      <c r="B8" s="9">
-        <v>44194.38380787056</v>
-      </c>
-      <c r="C8" s="9" t="inlineStr"/>
+      <c r="B8" s="1" t="inlineStr"/>
+      <c r="C8" s="1" t="inlineStr"/>
       <c r="D8" s="1" t="inlineStr"/>
       <c r="E8" s="1" t="inlineStr"/>
       <c r="F8" s="1" t="inlineStr"/>
@@ -495,19 +519,15 @@
       <c r="K8" s="1" t="inlineStr"/>
       <c r="L8" s="1" t="inlineStr"/>
       <c r="M8" s="1" t="inlineStr"/>
-      <c r="N8" s="10" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve"> 1</t>
-          </r>
-        </is>
-      </c>
+      <c r="N8" s="1" t="inlineStr"/>
       <c r="O8" s="1" t="inlineStr"/>
     </row>
-    <row r="9" customHeight="1" ht="20">
+    <row r="9" customHeight="1" ht="13">
       <c r="A9" s="1" t="inlineStr"/>
-      <c r="B9" s="1" t="inlineStr"/>
-      <c r="C9" s="1" t="inlineStr"/>
+      <c r="B9" s="9">
+        <v>44273.699155092705</v>
+      </c>
+      <c r="C9" s="9" t="inlineStr"/>
       <c r="D9" s="1" t="inlineStr"/>
       <c r="E9" s="1" t="inlineStr"/>
       <c r="F9" s="1" t="inlineStr"/>
@@ -518,8 +538,31 @@
       <c r="K9" s="1" t="inlineStr"/>
       <c r="L9" s="1" t="inlineStr"/>
       <c r="M9" s="1" t="inlineStr"/>
-      <c r="N9" s="1" t="inlineStr"/>
+      <c r="N9" s="10" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve"> 1</t>
+          </r>
+        </is>
+      </c>
       <c r="O9" s="1" t="inlineStr"/>
+    </row>
+    <row r="10" customHeight="1" ht="20">
+      <c r="A10" s="1" t="inlineStr"/>
+      <c r="B10" s="1" t="inlineStr"/>
+      <c r="C10" s="1" t="inlineStr"/>
+      <c r="D10" s="1" t="inlineStr"/>
+      <c r="E10" s="1" t="inlineStr"/>
+      <c r="F10" s="1" t="inlineStr"/>
+      <c r="G10" s="1" t="inlineStr"/>
+      <c r="H10" s="1" t="inlineStr"/>
+      <c r="I10" s="1" t="inlineStr"/>
+      <c r="J10" s="1" t="inlineStr"/>
+      <c r="K10" s="1" t="inlineStr"/>
+      <c r="L10" s="1" t="inlineStr"/>
+      <c r="M10" s="1" t="inlineStr"/>
+      <c r="N10" s="1" t="inlineStr"/>
+      <c r="O10" s="1" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -537,7 +580,11 @@
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="G6:H6"/>
     <mergeCell ref="M6:N6"/>
-    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="B9:C9"/>
   </mergeCells>
   <pageMargins left="0.0" right="0.0" top="0.0" bottom="0.00" header="0.0" footer="0.0"/>
   <pageSetup orientation="portrait"/>

--- a/reports/rptLeituras.xlsx
+++ b/reports/rptLeituras.xlsx
@@ -259,7 +259,7 @@
       <c r="C2" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">24/11/2020</t>
+            <t xml:space="preserve">01/09/2020</t>
           </r>
         </is>
       </c>
@@ -274,7 +274,7 @@
       <c r="F2" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">01/01/2022</t>
+            <t xml:space="preserve">19/03/2021</t>
           </r>
         </is>
       </c>
@@ -384,19 +384,19 @@
       <c r="C5" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">302</t>
+            <t xml:space="preserve">775</t>
           </r>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr"/>
       <c r="E5" s="6">
-        <v>44159.0</v>
+        <v>44140.0</v>
       </c>
       <c r="F5" s="6" t="inlineStr"/>
       <c r="G5" s="7" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">B</t>
+            <t xml:space="preserve">A</t>
           </r>
         </is>
       </c>
@@ -405,10 +405,10 @@
         <v>210.0</v>
       </c>
       <c r="J5" s="8" t="n">
-        <v>710.0</v>
+        <v>765.0</v>
       </c>
       <c r="K5" s="8" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="L5" s="8" t="n">
         <v>0.0</v>
@@ -427,37 +427,37 @@
       <c r="C6" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">455</t>
+            <t xml:space="preserve">301</t>
           </r>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr"/>
       <c r="E6" s="6">
-        <v>44167.0</v>
+        <v>44152.0</v>
       </c>
       <c r="F6" s="6" t="inlineStr"/>
       <c r="G6" s="7" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">A</t>
+            <t xml:space="preserve">B</t>
           </r>
         </is>
       </c>
       <c r="H6" s="7" t="inlineStr"/>
       <c r="I6" s="8" t="n">
-        <v>254.0</v>
+        <v>766.0</v>
       </c>
       <c r="J6" s="8" t="n">
-        <v>650.0</v>
+        <v>780.0</v>
       </c>
       <c r="K6" s="8" t="n">
-        <v>2.0</v>
+        <v>776.0</v>
       </c>
       <c r="L6" s="8" t="n">
         <v>0.0</v>
       </c>
       <c r="M6" s="8" t="n">
-        <v>0.0</v>
+        <v>655.0</v>
       </c>
       <c r="N6" s="8" t="inlineStr"/>
       <c r="O6" s="1" t="inlineStr"/>
@@ -470,31 +470,31 @@
       <c r="C7" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">304</t>
+            <t xml:space="preserve">302</t>
           </r>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr"/>
       <c r="E7" s="6">
-        <v>44228.0</v>
+        <v>44159.0</v>
       </c>
       <c r="F7" s="6" t="inlineStr"/>
       <c r="G7" s="7" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">A</t>
+            <t xml:space="preserve">B</t>
           </r>
         </is>
       </c>
       <c r="H7" s="7" t="inlineStr"/>
       <c r="I7" s="8" t="n">
-        <v>250.0</v>
+        <v>210.0</v>
       </c>
       <c r="J7" s="8" t="n">
-        <v>400.0</v>
+        <v>710.0</v>
       </c>
       <c r="K7" s="8" t="n">
-        <v>8.0</v>
+        <v>4.0</v>
       </c>
       <c r="L7" s="8" t="n">
         <v>0.0</v>
@@ -505,49 +505,93 @@
       <c r="N7" s="8" t="inlineStr"/>
       <c r="O7" s="1" t="inlineStr"/>
     </row>
-    <row r="8" customHeight="1" ht="704">
+    <row r="8" customHeight="1" ht="15">
       <c r="A8" s="1" t="inlineStr"/>
-      <c r="B8" s="1" t="inlineStr"/>
-      <c r="C8" s="1" t="inlineStr"/>
-      <c r="D8" s="1" t="inlineStr"/>
-      <c r="E8" s="1" t="inlineStr"/>
-      <c r="F8" s="1" t="inlineStr"/>
-      <c r="G8" s="1" t="inlineStr"/>
-      <c r="H8" s="1" t="inlineStr"/>
-      <c r="I8" s="1" t="inlineStr"/>
-      <c r="J8" s="1" t="inlineStr"/>
-      <c r="K8" s="1" t="inlineStr"/>
-      <c r="L8" s="1" t="inlineStr"/>
-      <c r="M8" s="1" t="inlineStr"/>
-      <c r="N8" s="1" t="inlineStr"/>
+      <c r="B8" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">455</t>
+          </r>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr"/>
+      <c r="E8" s="6">
+        <v>44167.0</v>
+      </c>
+      <c r="F8" s="6" t="inlineStr"/>
+      <c r="G8" s="7" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">A</t>
+          </r>
+        </is>
+      </c>
+      <c r="H8" s="7" t="inlineStr"/>
+      <c r="I8" s="8" t="n">
+        <v>254.0</v>
+      </c>
+      <c r="J8" s="8" t="n">
+        <v>650.0</v>
+      </c>
+      <c r="K8" s="8" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="L8" s="8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M8" s="8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N8" s="8" t="inlineStr"/>
       <c r="O8" s="1" t="inlineStr"/>
     </row>
-    <row r="9" customHeight="1" ht="13">
+    <row r="9" customHeight="1" ht="15">
       <c r="A9" s="1" t="inlineStr"/>
-      <c r="B9" s="9">
-        <v>44273.699155092705</v>
-      </c>
-      <c r="C9" s="9" t="inlineStr"/>
-      <c r="D9" s="1" t="inlineStr"/>
-      <c r="E9" s="1" t="inlineStr"/>
-      <c r="F9" s="1" t="inlineStr"/>
-      <c r="G9" s="1" t="inlineStr"/>
-      <c r="H9" s="1" t="inlineStr"/>
-      <c r="I9" s="1" t="inlineStr"/>
-      <c r="J9" s="1" t="inlineStr"/>
-      <c r="K9" s="1" t="inlineStr"/>
-      <c r="L9" s="1" t="inlineStr"/>
-      <c r="M9" s="1" t="inlineStr"/>
-      <c r="N9" s="10" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve"> 1</t>
-          </r>
-        </is>
-      </c>
+      <c r="B9" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">304</t>
+          </r>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr"/>
+      <c r="E9" s="6">
+        <v>44228.0</v>
+      </c>
+      <c r="F9" s="6" t="inlineStr"/>
+      <c r="G9" s="7" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">A</t>
+          </r>
+        </is>
+      </c>
+      <c r="H9" s="7" t="inlineStr"/>
+      <c r="I9" s="8" t="n">
+        <v>250.0</v>
+      </c>
+      <c r="J9" s="8" t="n">
+        <v>400.0</v>
+      </c>
+      <c r="K9" s="8" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="L9" s="8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M9" s="8" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="N9" s="8" t="inlineStr"/>
       <c r="O9" s="1" t="inlineStr"/>
     </row>
-    <row r="10" customHeight="1" ht="20">
+    <row r="10" customHeight="1" ht="674">
       <c r="A10" s="1" t="inlineStr"/>
       <c r="B10" s="1" t="inlineStr"/>
       <c r="C10" s="1" t="inlineStr"/>
@@ -563,6 +607,48 @@
       <c r="M10" s="1" t="inlineStr"/>
       <c r="N10" s="1" t="inlineStr"/>
       <c r="O10" s="1" t="inlineStr"/>
+    </row>
+    <row r="11" customHeight="1" ht="13">
+      <c r="A11" s="1" t="inlineStr"/>
+      <c r="B11" s="9">
+        <v>44274.8640740742</v>
+      </c>
+      <c r="C11" s="9" t="inlineStr"/>
+      <c r="D11" s="1" t="inlineStr"/>
+      <c r="E11" s="1" t="inlineStr"/>
+      <c r="F11" s="1" t="inlineStr"/>
+      <c r="G11" s="1" t="inlineStr"/>
+      <c r="H11" s="1" t="inlineStr"/>
+      <c r="I11" s="1" t="inlineStr"/>
+      <c r="J11" s="1" t="inlineStr"/>
+      <c r="K11" s="1" t="inlineStr"/>
+      <c r="L11" s="1" t="inlineStr"/>
+      <c r="M11" s="1" t="inlineStr"/>
+      <c r="N11" s="10" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve"> 1</t>
+          </r>
+        </is>
+      </c>
+      <c r="O11" s="1" t="inlineStr"/>
+    </row>
+    <row r="12" customHeight="1" ht="20">
+      <c r="A12" s="1" t="inlineStr"/>
+      <c r="B12" s="1" t="inlineStr"/>
+      <c r="C12" s="1" t="inlineStr"/>
+      <c r="D12" s="1" t="inlineStr"/>
+      <c r="E12" s="1" t="inlineStr"/>
+      <c r="F12" s="1" t="inlineStr"/>
+      <c r="G12" s="1" t="inlineStr"/>
+      <c r="H12" s="1" t="inlineStr"/>
+      <c r="I12" s="1" t="inlineStr"/>
+      <c r="J12" s="1" t="inlineStr"/>
+      <c r="K12" s="1" t="inlineStr"/>
+      <c r="L12" s="1" t="inlineStr"/>
+      <c r="M12" s="1" t="inlineStr"/>
+      <c r="N12" s="1" t="inlineStr"/>
+      <c r="O12" s="1" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -584,7 +670,15 @@
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="M7:N7"/>
-    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="B11:C11"/>
   </mergeCells>
   <pageMargins left="0.0" right="0.0" top="0.0" bottom="0.00" header="0.0" footer="0.0"/>
   <pageSetup orientation="portrait"/>
